--- a/biology/Histoire de la zoologie et de la botanique/Henry_Bowman_Brady/Henry_Bowman_Brady.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Bowman_Brady/Henry_Bowman_Brady.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Bowman Brady, né en février 1835 à Gateshead-on-Tyne et mort le 10 janvier 1891, est un pharmacien et un naturaliste britannique.
 C’est un spécialiste des foraminifères.
@@ -512,9 +524,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1876 : A monograph of Carboniferous and Permian Foraminifera: (the genus Fusulina excepted)[1] Printed for the Palaeontographical Society, Londres.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1876 : A monograph of Carboniferous and Permian Foraminifera: (the genus Fusulina excepted) Printed for the Palaeontographical Society, Londres.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Robert Wynn Jones (1980). The Challenger Expedition (1872-1876), Henry Bowman Brady (1835-1891) and the Challenger Foraminifera, Bulletin of the British Museum (Natural History), 18 (2) : 115-143.</t>
         </is>
